--- a/data/pudding1.xlsx
+++ b/data/pudding1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arici\OneDrive\Área de Trabalho\Rice Pudding\Rice-Pudding\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Desktop\Rice-Pudding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F7E33-6548-4B96-AB1B-CED583F93989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526426D-3EA4-4155-9B0D-3735903DC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1560" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F66BAA41-9053-4A80-A96A-861BD0BDEF6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F66BAA41-9053-4A80-A96A-861BD0BDEF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="exp4" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>2.8003503480326186</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -428,7 +428,7 @@
         <v>2.6760912590556813</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -436,7 +436,7 @@
         <v>3.0211892990699383</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -444,7 +444,7 @@
         <v>3.400530264923928</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -452,7 +452,7 @@
         <v>3.8431169792291273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -460,7 +460,7 @@
         <v>4.691073385463179</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -468,7 +468,7 @@
         <v>5.4659068519795699</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -476,7 +476,7 @@
         <v>6.1207856910445839</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -484,7 +484,7 @@
         <v>6.9528628700958084</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -492,7 +492,7 @@
         <v>7.5346490060577649</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -500,7 +500,7 @@
         <v>7.8501787639113303</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -508,7 +508,7 @@
         <v>8.1394682116505503</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -516,7 +516,7 @@
         <v>8.3183241725207928</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -524,7 +524,7 @@
         <v>8.2375812595415461</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -532,7 +532,7 @@
         <v>8.3351229265370623</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
@@ -540,7 +540,7 @@
         <v>8.3351229265370623</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2.8450980400142569</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>2.917051327856397</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -564,7 +564,7 @@
         <v>2.7781512503836439</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -572,7 +572,7 @@
         <v>3.6300356939925376</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -580,7 +580,7 @@
         <v>4.6548150837129496</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -588,7 +588,7 @@
         <v>5.5796331655467473</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -596,7 +596,7 @@
         <v>7.1008896768625309</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16</v>
       </c>
@@ -604,7 +604,7 @@
         <v>7.4117371145851507</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -612,7 +612,7 @@
         <v>7.7464960685497797</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -620,7 +620,7 @@
         <v>8.2340406772009302</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -628,7 +628,7 @@
         <v>8.3445655986172493</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -636,7 +636,7 @@
         <v>8.2405420759075447</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
@@ -644,7 +644,7 @@
         <v>8.2516365166443926</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>2.3890756251918202</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -660,7 +660,7 @@
         <v>2.97530411239212</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
         <v>3.6886349077195</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -676,7 +676,7 @@
         <v>4.2822146634989897</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -684,7 +684,7 @@
         <v>5.96470946285715</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -692,7 +692,7 @@
         <v>7.1971032226801102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -700,7 +700,7 @@
         <v>7.8987251815894899</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -708,7 +708,7 @@
         <v>8.0253058652647695</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21</v>
       </c>
@@ -716,7 +716,7 @@
         <v>8.2201868759081798</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -724,7 +724,7 @@
         <v>8.3790204587144999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
@@ -732,7 +732,7 @@
         <v>8.2301481633787397</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>31</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8.3588602095197704</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
@@ -748,7 +748,7 @@
         <v>8.2977756659208808</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>38</v>
       </c>
@@ -769,9 +769,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -787,7 +787,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.7</v>
       </c>
@@ -795,7 +795,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -803,7 +803,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.7</v>
       </c>
@@ -811,7 +811,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -819,7 +819,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -827,7 +827,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -835,7 +835,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -843,7 +843,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.7</v>
       </c>
@@ -859,7 +859,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -867,7 +867,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -875,7 +875,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -883,7 +883,7 @@
         <v>8.19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -891,7 +891,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -899,7 +899,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -907,7 +907,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -915,7 +915,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
         <v>3.1803913449366403</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.7</v>
       </c>
@@ -931,7 +931,7 @@
         <v>3.3701813447471221</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -939,7 +939,7 @@
         <v>3.9992767824071755</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -947,7 +947,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -955,7 +955,7 @@
         <v>5.2249011318133274</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -963,7 +963,7 @@
         <v>6.5433578319724415</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -971,7 +971,7 @@
         <v>6.8311616599537786</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -979,7 +979,7 @@
         <v>7.9765414219560435</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
         <v>7.9149733479708182</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -995,7 +995,7 @@
         <v>8.212056797734018</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>8.1935880931749416</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>8.2012596512871241</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>8.2501868571766863</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>2.8003503480326186</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>2.8996702747267911</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4.1571285335431343</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>5.1534911412756816</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>6.2278791015520687</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>7.0210907972578838</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>7.6388275238573549</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>7.9097719677709346</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>8.0972294187217635</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>8.3463133164757402</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>8.4304503635554617</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>8.4675923500224233</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>8.4707060201867748</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19</v>
       </c>
@@ -1140,13 +1140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A79A588-A45C-499F-9B9D-9AC381F0E5CE}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>2.8003503480326186</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.7</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>2.941830717576809</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>3.7512135599922161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>5.4548314925770089</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>6.9902471166950209</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>8.0906930975416085</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>8.3263165340415561</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>8.2588617974168681</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>8.008600171761918</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>8.4056467137221347</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>8.7639257510214374</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>8.8045890276470935</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>8.8864907251724823</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>9.0937603604182318</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>9.1072099696478688</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>2.8450980400142569</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>3.6928031367991561</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.2</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>3.8976270912904414</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>5.3774797938608554</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>7.0484550065040281</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>7.7014752732993736</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>8.2825045521062979</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>8.2750897078542494</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>8.4372641009079583</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>8.9882621060808532</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>8.747515325308175</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>8.655529216697051</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>8.4259470164623771</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>2.3890756251918219</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.25</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>2.3890756251918219</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.75</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>3.9637878273455551</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>4.3979400086720375</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>6.3973172066951989</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>7.6126546408629316</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>8.5434271799673898</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>8.3654113178658243</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>8.6408756460725549</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>8.6998619480163306</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>8.7626371047467302</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>9.0971461407759868</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>9.0492180226701819</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
@@ -1490,269 +1490,104 @@
         <v>8.9647000103597492</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2.8003503480326186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3.0606978403536118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>14</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5.9426806100157563</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>22</v>
-      </c>
-      <c r="B47" s="1">
-        <v>6.9032697376331251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1">
-        <v>7.139833472024228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1">
-        <v>7.2235790156711097</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <v>7.7289409483669962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>7.7368164634369201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>68</v>
-      </c>
-      <c r="B52" s="1">
-        <v>8.0167118777434752</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>92</v>
-      </c>
-      <c r="B53" s="1">
-        <v>8.3074960379132126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>116</v>
-      </c>
-      <c r="B54" s="1">
-        <v>8.4027504290791999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2.8450980400142569</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" s="1">
-        <v>3.0340929308730811</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57" s="1">
-        <v>6.2598352585389145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>23</v>
-      </c>
-      <c r="B58" s="1">
-        <v>7.5667694541851089</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>27</v>
-      </c>
-      <c r="B59" s="1">
-        <v>7.7342475122535346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>39</v>
-      </c>
-      <c r="B60" s="1">
-        <v>8.3511894158218816</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>45</v>
-      </c>
-      <c r="B61" s="1">
-        <v>8.5809997581074988</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>51</v>
-      </c>
-      <c r="B62" s="1">
-        <v>8.4413277163422507</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>68</v>
-      </c>
-      <c r="B63" s="1">
-        <v>8.5079731218287833</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>72</v>
-      </c>
-      <c r="B64" s="1">
-        <v>8.4860690067346702</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>96</v>
-      </c>
-      <c r="B65" s="1">
-        <v>8.3844078149965995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2.3890756251918219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="B67" s="1">
-        <v>3.4279109527030149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>18</v>
-      </c>
-      <c r="B68" s="1">
-        <v>6.9799974191642082</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>22</v>
-      </c>
-      <c r="B69" s="1">
-        <v>7.4057875029352971</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>27</v>
-      </c>
-      <c r="B70" s="1">
-        <v>7.7746242784270283</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>42</v>
-      </c>
-      <c r="B71" s="1">
-        <v>8.1304052455334901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>49</v>
-      </c>
-      <c r="B72" s="1">
-        <v>8.1386785220235076</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1">
-        <v>8.5453335530235144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>95</v>
-      </c>
-      <c r="B74" s="1">
-        <v>8.4725569571204069</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>119</v>
-      </c>
-      <c r="B75" s="1">
-        <v>8.3594210078941273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>143</v>
-      </c>
-      <c r="B76" s="1">
-        <v>8.4850804215186564</v>
-      </c>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,13 +1598,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F71086-CBC0-40F5-BC5F-9C749AD5F900}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1785,7 +1620,7 @@
         <v>2.5986402790628098</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.7</v>
       </c>
@@ -1793,7 +1628,7 @@
         <v>4.0251318613228975</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1801,7 +1636,7 @@
         <v>5.0303489201768059</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.7</v>
       </c>
@@ -1809,7 +1644,7 @@
         <v>5.6232492903979008</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1817,7 +1652,7 @@
         <v>7.4858072146500048</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1825,7 +1660,7 @@
         <v>8.2039332915153871</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1833,7 +1668,7 @@
         <v>8.2776077025630368</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1841,7 +1676,7 @@
         <v>8.326606256887672</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1849,7 +1684,7 @@
         <v>9.0224266086338663</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1857,7 +1692,7 @@
         <v>8.4064566783214278</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1865,7 +1700,7 @@
         <v>8.0705209704695253</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1873,7 +1708,7 @@
         <v>8.5562773665302139</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1881,7 +1716,7 @@
         <v>8.0542825118664183</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1889,7 +1724,7 @@
         <v>3.1803913449366403</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.2</v>
       </c>
@@ -1897,7 +1732,7 @@
         <v>3.1959084618066242</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.7</v>
       </c>
@@ -1905,7 +1740,7 @@
         <v>4.8706743012379476</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1913,7 +1748,7 @@
         <v>5.5377734806962655</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1921,7 +1756,7 @@
         <v>7.1622029669017717</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1929,7 +1764,7 @@
         <v>8.1707370470133291</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1937,7 +1772,7 @@
         <v>8.2914292311122502</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1945,7 +1780,7 @@
         <v>8.2737642882298914</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1953,7 +1788,7 @@
         <v>8.4893184741922383</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1961,7 +1796,7 @@
         <v>8.3730055538759629</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1969,7 +1804,7 @@
         <v>2.8003503480326186</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -1977,7 +1812,7 @@
         <v>2.941830717576809</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.7</v>
       </c>
@@ -1985,7 +1820,7 @@
         <v>4.2898917983084051</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1993,7 +1828,7 @@
         <v>5.7684558971468114</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.7</v>
       </c>
@@ -2001,7 +1836,7 @@
         <v>7.2903370647646453</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2009,7 +1844,7 @@
         <v>7.3967555028964291</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2017,7 +1852,7 @@
         <v>7.7813842715082595</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2025,7 +1860,7 @@
         <v>8.2136781278794615</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -2033,7 +1868,7 @@
         <v>8.1392396115231627</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -2041,7 +1876,7 @@
         <v>8.4182411787290743</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -2049,7 +1884,7 @@
         <v>8.3720329975830747</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -2057,7 +1892,7 @@
         <v>9.0352036608700601</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -2065,7 +1900,7 @@
         <v>8.4149733479708182</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -2080,15 +1915,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B1476-5B19-4E8C-ADDE-1D0A734F5D1C}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2096,269 +1931,302 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.8003503480326186</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4</v>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.16666666666666666</v>
       </c>
       <c r="B3" s="1">
         <v>3.0606978403536118</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>14</v>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.58333333333333337</v>
       </c>
       <c r="B4" s="1">
         <v>5.9426806100157563</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>22</v>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.91666666666666663</v>
       </c>
       <c r="B5" s="1">
         <v>6.9032697376331251</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>27</v>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.125</v>
       </c>
       <c r="B6" s="1">
         <v>7.139833472024228</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>38</v>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.5833333333333333</v>
       </c>
       <c r="B7" s="1">
         <v>7.2235790156711097</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>46</v>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1.9166666666666667</v>
       </c>
       <c r="B8" s="1">
         <v>7.7289409483669962</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>50</v>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2.0833333333333335</v>
       </c>
       <c r="B9" s="1">
         <v>7.7368164634369201</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>68</v>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2.8333333333333335</v>
       </c>
       <c r="B10" s="1">
         <v>8.0167118777434752</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>92</v>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3.8333333333333335</v>
       </c>
       <c r="B11" s="1">
         <v>8.3074960379132126</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>116</v>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4.833333333333333</v>
       </c>
       <c r="B12" s="1">
         <v>8.4027504290791999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>2.8450980400142569</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>4</v>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.16666666666666666</v>
       </c>
       <c r="B14" s="1">
         <v>3.0340929308730811</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>16</v>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.66666666666666663</v>
       </c>
       <c r="B15" s="1">
         <v>6.2598352585389145</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>23</v>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.95833333333333337</v>
       </c>
       <c r="B16" s="1">
         <v>7.5667694541851089</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>27</v>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1.125</v>
       </c>
       <c r="B17" s="1">
         <v>7.7342475122535346</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>39</v>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1.625</v>
       </c>
       <c r="B18" s="1">
         <v>8.3511894158218816</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>45</v>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1.875</v>
       </c>
       <c r="B19" s="1">
         <v>8.5809997581074988</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>51</v>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2.125</v>
       </c>
       <c r="B20" s="1">
         <v>8.4413277163422507</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>68</v>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2.8333333333333335</v>
       </c>
       <c r="B21" s="1">
         <v>8.5079731218287833</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>72</v>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>8.4860690067346702</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>96</v>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>8.3844078149965995</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="1">
         <v>2.3890756251918219</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>6</v>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.25</v>
       </c>
       <c r="B25" s="1">
         <v>3.4279109527030149</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>18</v>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.75</v>
       </c>
       <c r="B26" s="1">
         <v>6.9799974191642082</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>22</v>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.91666666666666663</v>
       </c>
       <c r="B27" s="1">
         <v>7.4057875029352971</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1.125</v>
       </c>
       <c r="B28" s="1">
         <v>7.7746242784270283</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>42</v>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1.75</v>
       </c>
       <c r="B29" s="1">
         <v>8.1304052455334901</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>49</v>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2.0416666666666665</v>
       </c>
       <c r="B30" s="1">
         <v>8.1386785220235076</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>71</v>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2.9583333333333335</v>
       </c>
       <c r="B31" s="1">
         <v>8.5453335530235144</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>95</v>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3.9583333333333335</v>
       </c>
       <c r="B32" s="1">
         <v>8.4725569571204069</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>119</v>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4.958333333333333</v>
       </c>
       <c r="B33" s="1">
         <v>8.3594210078941273</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>143</v>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>5.958333333333333</v>
       </c>
       <c r="B34" s="1">
         <v>8.4850804215186564</v>
       </c>
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
